--- a/training/output/Resnet34_ViT/P/P2_P1.xlsx
+++ b/training/output/Resnet34_ViT/P/P2_P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8410087719298246</v>
+        <v>0.6326470588235293</v>
       </c>
       <c r="B2" t="n">
-        <v>1.694488437552201</v>
+        <v>1.646457559922162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9407894736842105</v>
+        <v>0.8602941176470589</v>
       </c>
       <c r="B3" t="n">
-        <v>1.500852576473303</v>
+        <v>1.307295406565947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9462719298245614</v>
+        <v>0.9079411764705883</v>
       </c>
       <c r="B4" t="n">
-        <v>1.460361428428115</v>
+        <v>1.128474782494938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9232352941176472</v>
       </c>
       <c r="B5" t="n">
-        <v>1.424740793412192</v>
+        <v>1.012791903579936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9506578947368421</v>
+        <v>0.9408823529411765</v>
       </c>
       <c r="B6" t="n">
-        <v>1.431105720369439</v>
+        <v>0.9316579664454741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9573529411764705</v>
       </c>
       <c r="B7" t="n">
-        <v>1.430611292521159</v>
+        <v>0.8676173827227425</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9511764705882352</v>
       </c>
       <c r="B8" t="n">
-        <v>1.425111557307996</v>
+        <v>0.8426017235307133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9572368421052632</v>
+        <v>0.9526470588235294</v>
       </c>
       <c r="B9" t="n">
-        <v>1.425337274869283</v>
+        <v>0.8081312635365654</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9558823529411765</v>
       </c>
       <c r="B10" t="n">
-        <v>1.40467073206316</v>
+        <v>0.7959606612429899</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9570588235294117</v>
       </c>
       <c r="B11" t="n">
-        <v>1.452906794715346</v>
+        <v>0.7719721303266638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9539473684210527</v>
+        <v>0.9597058823529413</v>
       </c>
       <c r="B12" t="n">
-        <v>1.418465781630131</v>
+        <v>0.7604908417252934</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9550438596491229</v>
+        <v>0.9644117647058823</v>
       </c>
       <c r="B13" t="n">
-        <v>1.423388213442083</v>
+        <v>0.7479901278720182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9623529411764705</v>
       </c>
       <c r="B14" t="n">
-        <v>1.415915380444443</v>
+        <v>0.74499752591638</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9658823529411764</v>
       </c>
       <c r="B15" t="n">
-        <v>1.405554024796737</v>
+        <v>0.7387542444116929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B16" t="n">
-        <v>1.404156551026461</v>
+        <v>0.7317655016394222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B17" t="n">
-        <v>1.397935191790263</v>
+        <v>0.7298328841433805</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B18" t="n">
-        <v>1.396706217213681</v>
+        <v>0.7310625279650969</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9694117647058824</v>
       </c>
       <c r="B19" t="n">
-        <v>1.406934897104899</v>
+        <v>0.7263841348535874</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B20" t="n">
-        <v>1.464503654262476</v>
+        <v>0.7310815628837136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9708823529411766</v>
       </c>
       <c r="B21" t="n">
-        <v>1.419357513126574</v>
+        <v>0.7232987074291005</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9660087719298246</v>
+        <v>0.9699999999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1.427359802681103</v>
+        <v>0.7213058962541468</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9699999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>1.396663749427126</v>
+        <v>0.7244428291040308</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B24" t="n">
-        <v>1.400365160222639</v>
+        <v>0.7240863863159629</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9495614035087719</v>
+        <v>0.9632352941176471</v>
       </c>
       <c r="B25" t="n">
-        <v>1.413065075874329</v>
+        <v>0.724172550089219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9717647058823529</v>
       </c>
       <c r="B26" t="n">
-        <v>1.397172166590105</v>
+        <v>0.7214991485371309</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9702941176470589</v>
       </c>
       <c r="B27" t="n">
-        <v>1.395053907444603</v>
+        <v>0.7187171648530399</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9699999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>1.396149102010225</v>
+        <v>0.7210941665312823</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B29" t="n">
-        <v>1.397158480527108</v>
+        <v>0.724969769225401</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9572368421052632</v>
+        <v>0.9691176470588236</v>
       </c>
       <c r="B30" t="n">
-        <v>1.400357100001553</v>
+        <v>0.7191833818660063</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9594298245614035</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B31" t="n">
-        <v>1.396961837484126</v>
+        <v>0.7167588858043447</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9506578947368421</v>
+        <v>0.9685294117647059</v>
       </c>
       <c r="B32" t="n">
-        <v>1.398181982207717</v>
+        <v>0.7187816640909981</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9702941176470589</v>
       </c>
       <c r="B33" t="n">
-        <v>1.402167067193148</v>
+        <v>0.7144030192319084</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B34" t="n">
-        <v>1.412106810954579</v>
+        <v>0.7152711643892176</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9744117647058824</v>
       </c>
       <c r="B35" t="n">
-        <v>1.432300634551467</v>
+        <v>0.7126408780322355</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9717647058823529</v>
       </c>
       <c r="B36" t="n">
-        <v>1.4039281418449</v>
+        <v>0.7144958166515126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9660087719298246</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B37" t="n">
-        <v>1.397113339942798</v>
+        <v>0.7145181193071253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B38" t="n">
-        <v>1.394061372991194</v>
+        <v>0.7117898113587323</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9660087719298246</v>
+        <v>0.9699999999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>1.39260632949963</v>
+        <v>0.7113376750665552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9726470588235294</v>
       </c>
       <c r="B40" t="n">
-        <v>1.396943926811218</v>
+        <v>0.7115218744558447</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9287280701754386</v>
+        <v>0.9729411764705882</v>
       </c>
       <c r="B41" t="n">
-        <v>1.393119119761283</v>
+        <v>0.710666183163138</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9429824561403509</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B42" t="n">
-        <v>1.392750911545335</v>
+        <v>0.7129215983783498</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B43" t="n">
-        <v>1.39403514067332</v>
+        <v>0.713503872647005</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9506578947368421</v>
+        <v>0.9726470588235294</v>
       </c>
       <c r="B44" t="n">
-        <v>1.399944633768316</v>
+        <v>0.7105109691619873</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9495614035087719</v>
+        <v>0.973529411764706</v>
       </c>
       <c r="B45" t="n">
-        <v>1.392640868822734</v>
+        <v>0.7130104934467989</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9764705882352942</v>
       </c>
       <c r="B46" t="n">
-        <v>1.391706067219115</v>
+        <v>0.7112672889933866</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9572368421052632</v>
+        <v>0.9694117647058824</v>
       </c>
       <c r="B47" t="n">
-        <v>1.392412545388205</v>
+        <v>0.7081835655605092</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9539473684210527</v>
+        <v>0.9732352941176472</v>
       </c>
       <c r="B48" t="n">
-        <v>1.396179452277067</v>
+        <v>0.7087125848321354</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9539473684210527</v>
+        <v>0.9723529411764706</v>
       </c>
       <c r="B49" t="n">
-        <v>1.396131281267133</v>
+        <v>0.7091810948708478</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.930921052631579</v>
+        <v>0.9711764705882354</v>
       </c>
       <c r="B50" t="n">
-        <v>1.395829934822886</v>
+        <v>0.7095944215269649</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9506578947368421</v>
+        <v>0.9729411764705882</v>
       </c>
       <c r="B51" t="n">
-        <v>1.394347617500707</v>
+        <v>0.7098531372406903</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9517543859649122</v>
+        <v>0.9723529411764706</v>
       </c>
       <c r="B52" t="n">
-        <v>1.416277306121692</v>
+        <v>0.7107624621952281</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9484649122807017</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B53" t="n">
-        <v>1.396332774245948</v>
+        <v>0.7079992189126856</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.9729411764705882</v>
       </c>
       <c r="B54" t="n">
-        <v>1.40153814198678</v>
+        <v>0.7081905428101035</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B55" t="n">
-        <v>1.395469922768442</v>
+        <v>0.7079157864346224</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9755882352941176</v>
       </c>
       <c r="B56" t="n">
-        <v>1.412190495875844</v>
+        <v>0.7074882247868706</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B57" t="n">
-        <v>1.400882011965702</v>
+        <v>0.7094043142655316</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9761764705882354</v>
       </c>
       <c r="B58" t="n">
-        <v>1.390743094578124</v>
+        <v>0.7132947550100439</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9717647058823529</v>
       </c>
       <c r="B59" t="n">
-        <v>1.390545071217052</v>
+        <v>0.707152734784519</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B60" t="n">
-        <v>1.440018733342489</v>
+        <v>0.7072559139307808</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B61" t="n">
-        <v>1.393460930439464</v>
+        <v>0.7088052700547611</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9761764705882352</v>
       </c>
       <c r="B62" t="n">
-        <v>1.392842411994934</v>
+        <v>0.70709649254294</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9729411764705882</v>
       </c>
       <c r="B63" t="n">
-        <v>1.398656759345741</v>
+        <v>0.707192484070273</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9755882352941176</v>
       </c>
       <c r="B64" t="n">
-        <v>1.390378805628994</v>
+        <v>0.7077763992197373</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9729411764705882</v>
       </c>
       <c r="B65" t="n">
-        <v>1.396235438815334</v>
+        <v>0.7073835485121783</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.973529411764706</v>
       </c>
       <c r="B66" t="n">
-        <v>1.428193301485296</v>
+        <v>0.7053322020698997</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.944078947368421</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B67" t="n">
-        <v>1.39618378354792</v>
+        <v>0.7051641625516555</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9755882352941176</v>
       </c>
       <c r="B68" t="n">
-        <v>1.390882425140916</v>
+        <v>0.706385381081525</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.976764705882353</v>
       </c>
       <c r="B69" t="n">
-        <v>1.389855809379042</v>
+        <v>0.7080947897013496</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9550438596491229</v>
+        <v>0.9761764705882354</v>
       </c>
       <c r="B70" t="n">
-        <v>1.390148236040484</v>
+        <v>0.7072585891274845</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9758823529411764</v>
       </c>
       <c r="B71" t="n">
-        <v>1.410622216107553</v>
+        <v>0.7070055989658132</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.978529411764706</v>
       </c>
       <c r="B72" t="n">
-        <v>1.392154501195539</v>
+        <v>0.7072660502265481</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B73" t="n">
-        <v>1.428007776277107</v>
+        <v>0.705066929845249</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9594298245614035</v>
+        <v>0.978529411764706</v>
       </c>
       <c r="B74" t="n">
-        <v>1.395125315900434</v>
+        <v>0.7056302358122433</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9773529411764708</v>
       </c>
       <c r="B75" t="n">
-        <v>1.407463305874875</v>
+        <v>0.7055030815741595</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.9747058823529412</v>
       </c>
       <c r="B76" t="n">
-        <v>1.399569312731425</v>
+        <v>0.7063600701444289</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.976764705882353</v>
       </c>
       <c r="B77" t="n">
-        <v>1.392756292694493</v>
+        <v>0.7048649086671717</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.976764705882353</v>
       </c>
       <c r="B78" t="n">
-        <v>1.400267247568097</v>
+        <v>0.7052469113293816</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9776470588235294</v>
       </c>
       <c r="B79" t="n">
-        <v>1.415864229202271</v>
+        <v>0.7068361008868498</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.976764705882353</v>
       </c>
       <c r="B80" t="n">
-        <v>1.401253867567631</v>
+        <v>0.704823728869943</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.9729411764705882</v>
       </c>
       <c r="B81" t="n">
-        <v>1.4315165929627</v>
+        <v>0.7055961174123427</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9761764705882354</v>
       </c>
       <c r="B82" t="n">
-        <v>1.402019638764231</v>
+        <v>0.7049250462475944</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9725877192982456</v>
+        <v>0.976764705882353</v>
       </c>
       <c r="B83" t="n">
-        <v>1.391816450838457</v>
+        <v>0.7052545196869794</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9779411764705882</v>
       </c>
       <c r="B84" t="n">
-        <v>1.405012921283119</v>
+        <v>0.7076220126713023</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9729411764705882</v>
       </c>
       <c r="B85" t="n">
-        <v>1.391741066648249</v>
+        <v>0.7094746091786552</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9694117647058824</v>
       </c>
       <c r="B86" t="n">
-        <v>1.393526871999105</v>
+        <v>0.706823864403893</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9725877192982456</v>
+        <v>0.9723529411764706</v>
       </c>
       <c r="B87" t="n">
-        <v>1.390351207632768</v>
+        <v>0.7060225956580218</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9725877192982456</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B88" t="n">
-        <v>1.430365336568732</v>
+        <v>0.706527920330272</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B89" t="n">
-        <v>1.396544345638208</v>
+        <v>0.7093824919532327</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9726470588235294</v>
       </c>
       <c r="B90" t="n">
-        <v>1.398503571225886</v>
+        <v>0.7076656362589668</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9755882352941176</v>
       </c>
       <c r="B91" t="n">
-        <v>1.391411802224946</v>
+        <v>0.7048090836581062</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.9747058823529412</v>
       </c>
       <c r="B92" t="n">
-        <v>1.388998617205703</v>
+        <v>0.7051879237679874</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B93" t="n">
-        <v>1.390486922180443</v>
+        <v>0.7067310143919552</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9755882352941176</v>
       </c>
       <c r="B94" t="n">
-        <v>1.390969061014945</v>
+        <v>0.7071980623637929</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9747058823529412</v>
       </c>
       <c r="B95" t="n">
-        <v>1.390260727781998</v>
+        <v>0.7073203325271606</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9729411764705882</v>
       </c>
       <c r="B96" t="n">
-        <v>1.388455865675943</v>
+        <v>0.7070966292830074</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9769736842105263</v>
+        <v>0.9744117647058824</v>
       </c>
       <c r="B97" t="n">
-        <v>1.390204389890035</v>
+        <v>0.7045054751283982</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.9744117647058824</v>
       </c>
       <c r="B98" t="n">
-        <v>1.408842109797294</v>
+        <v>0.706162196748397</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9720588235294119</v>
       </c>
       <c r="B99" t="n">
-        <v>1.398058744899014</v>
+        <v>0.7042103690259597</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9758771929824561</v>
+        <v>0.9791176470588235</v>
       </c>
       <c r="B100" t="n">
-        <v>1.391170177543372</v>
+        <v>0.7039444797179278</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.975</v>
       </c>
       <c r="B101" t="n">
-        <v>1.388751144994769</v>
+        <v>0.7064590874840232</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9773529411764708</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.704240595593172</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9747058823529412</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7043544089092928</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9773529411764708</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7054015292840845</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9752941176470588</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7042773190666648</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9744117647058824</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7058834538740271</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.976764705882353</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7043250764117521</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.978529411764706</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7040101640364703</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9761764705882352</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7045131290660185</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9747058823529412</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7046023502069361</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7048517816206988</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7052214461214402</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9761764705882352</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7044229823000291</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9738235294117646</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7043834363712984</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9761764705882352</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7036769530352425</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9744117647058824</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7049503010862014</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9741176470588234</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7035035876666799</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9755882352941176</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7030566895709318</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9717647058823529</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7057514330920052</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7040376593084896</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9747058823529412</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7032318991773269</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.703378793071298</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9723529411764706</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7056117513600517</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9761764705882354</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7043787872090059</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9758823529411764</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7023074381491717</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.976764705882353</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.705506847185247</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9791176470588235</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7033063839463627</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9776470588235293</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7038642132983488</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9773529411764705</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7035583397921394</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9785294117647058</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.703193699612337</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.976764705882353</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7034638278624591</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9758823529411764</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7164175650652718</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9752941176470588</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7057610750198364</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9773529411764705</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7050120479920331</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9791176470588235</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.703744698973263</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.978235294117647</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7045183322008919</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9752941176470588</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7035578208811143</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9758823529411764</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7041864465264713</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9758823529411764</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7045658581397113</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.978529411764706</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7023644377203548</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9752941176470588</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7027643428129309</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9752941176470588</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7055653719341054</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9570588235294117</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7512560276424184</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9738235294117646</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7073641033733592</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9755882352941176</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7075493511031655</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9738235294117646</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7067345766460195</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7049091598566841</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9755882352941176</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7056013450903051</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9723529411764706</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7045362100881689</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9761764705882352</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.706000030040741</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9779411764705882</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7055645269506118</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9750000000000002</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7039539884118473</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9761764705882352</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7056657496620627</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9738235294117646</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7046002184643465</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9726470588235294</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7055293602101943</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9750000000000002</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7050925002378576</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9738235294117646</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7034901555846719</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.702478265061098</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9755882352941176</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7036943681099835</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9773529411764708</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7037558275110581</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7033651926938225</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9773529411764708</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7034549362519208</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.978529411764706</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7027871433426353</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9758823529411764</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7022857175153845</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.973529411764706</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7012286466710708</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9755882352941176</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7034647289444419</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9761764705882352</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7027912315200356</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9755882352941176</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7072752608972437</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.978529411764706</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7038505673408508</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9761764705882354</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7021001682561987</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9773529411764708</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7027331415344688</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9744117647058824</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7030518931501052</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9738235294117646</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7038055167478674</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7017398196108201</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9755882352941176</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7022286898949567</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9755882352941176</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7022171406184926</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9755882352941176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7018850375624264</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7016367842169369</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9773529411764708</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7057039246839636</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9576470588235293</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7372681007665747</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9694117647058822</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7060334472095265</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9723529411764706</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7050772940411287</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9729411764705882</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7050339579582214</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9755882352941176</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7053537754451528</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9744117647058824</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7036385641378515</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9744117647058824</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7037487976691302</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9720588235294116</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7049865862902474</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9714705882352942</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7241852599031785</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9738235294117646</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7087160909877104</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9744117647058824</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7071514375069562</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9744117647058824</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7071681478444267</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9726470588235294</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.704134506337783</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9761764705882352</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.704352550646838</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9791176470588235</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7047922996913686</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.978529411764706</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7039156240575454</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9744117647058824</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7029120290980619</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9761764705882352</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7032924995702856</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9773529411764708</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.70426384491079</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9732352941176472</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7033935049000908</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9732352941176472</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7022878352333518</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.976764705882353</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7028699517250061</v>
       </c>
     </row>
   </sheetData>
